--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">asgard-saga-refresh</t>
   </si>
   <si>
-    <t xml:space="preserve">Asgard-service</t>
+    <t xml:space="preserve">asgard-service</t>
   </si>
   <si>
     <t xml:space="preserve">刷新Asgard数据</t>
@@ -2678,8 +2678,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2918,7 +2918,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2996,8 +2996,8 @@
   </sheetPr>
   <dimension ref="D7:N10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3005,8 +3005,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.5"/>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -2175,15 +2175,31 @@
   </si>
   <si>
     <t xml:space="preserve">刷新Asgard数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iam-permission-task-refresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iam-service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刷新权限表数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iam-init-data-task-refresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刷新菜单表数据</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="YYYY/MM/DD\ HH:MM:SS"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -2442,7 +2458,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2581,6 +2597,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2903,8 +2923,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2979,10 +2999,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D7:N1048576"/>
+  <dimension ref="D5:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2998,12 +3018,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="15" style="0" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.67"/>
   </cols>
   <sheetData>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="33" t="s">
         <v>55</v>
       </c>
@@ -3038,7 +3060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="0" t="s">
         <v>62</v>
       </c>
@@ -3069,8 +3091,89 @@
       <c r="N8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q8" s="35"/>
+      <c r="S8" s="35"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="35"/>
+      <c r="S9" s="35"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="35"/>
+      <c r="S10" s="35"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <r>
       <rPr>
@@ -1976,6 +1976,12 @@
   </si>
   <si>
     <t>刷新菜单表数据</t>
+  </si>
+  <si>
+    <t>base-role-permission-fix-task-refresh</t>
+  </si>
+  <si>
+    <t>修复角色权限关联为代码关联</t>
   </si>
 </sst>
 </file>
@@ -1983,13 +1989,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2001,6 +2007,12 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -2035,12 +2047,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2049,7 +2133,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2065,50 +2157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2122,9 +2171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2139,44 +2188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2184,7 +2196,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2265,7 +2277,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2277,13 +2361,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2295,13 +2379,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2313,7 +2427,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2325,127 +2457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2462,28 +2474,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2508,12 +2504,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2522,13 +2527,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2543,6 +2546,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2552,11 +2564,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2566,6 +2584,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2585,17 +2627,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2614,345 +2661,313 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3295,212 +3310,212 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="10.5037037037037" style="6" customWidth="1"/>
+    <col min="1" max="2" width="10.5037037037037" style="7" customWidth="1"/>
     <col min="3" max="3" width="116.666666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.5037037037037" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.5037037037037" style="8" customWidth="1"/>
     <col min="5" max="1025" width="10.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64" customHeight="1" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="23"/>
+    <row r="2" ht="15.75" spans="5:5">
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49" customHeight="1" spans="3:7">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
-    <row r="4" ht="31.5" spans="3:7">
-      <c r="C4" s="11" t="s">
+    <row r="4" ht="30" spans="3:7">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8"/>
-      <c r="C5" s="7" t="s">
+    <row r="5" ht="15.75" spans="1:3">
+      <c r="A5" s="9"/>
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="12" t="s">
+    <row r="7" ht="15.75" spans="3:5">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="14" t="s">
+    <row r="8" ht="15.75" spans="3:5">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="24"/>
     </row>
-    <row r="9" ht="126" spans="3:6">
-      <c r="C9" s="16" t="s">
+    <row r="9" ht="118.5" spans="3:6">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="157.5" spans="3:5">
-      <c r="C10" s="18" t="s">
+    <row r="10" ht="148.5" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="31.5" spans="3:5">
-      <c r="C12" s="14" t="s">
+    <row r="12" ht="30" spans="3:5">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="32"/>
+    <row r="13" ht="15.75" spans="3:5">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="32"/>
+    <row r="14" ht="15.75" spans="3:5">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
-    <row r="15" ht="110.25" spans="3:5">
-      <c r="C15" s="19" t="s">
+    <row r="15" ht="104.25" spans="3:5">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="21" t="s">
+    <row r="19" ht="15.75" spans="3:5">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="22" t="s">
+    <row r="20" ht="15.75" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="22" t="s">
+    <row r="21" ht="15.75" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="22" t="s">
+    <row r="22" ht="15.75" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="22" t="s">
+    <row r="23" ht="15.75" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="13"/>
     </row>
-    <row r="26" customHeight="1" spans="3:5">
-      <c r="C26" s="15" t="s">
+    <row r="26" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="13"/>
     </row>
-    <row r="27" ht="31.5" spans="3:3">
-      <c r="C27" s="25" t="s">
+    <row r="27" ht="30" spans="3:3">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3529,7 +3544,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="10.5037037037037" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
@@ -3540,21 +3555,21 @@
     <col min="9" max="1025" width="10.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="4:8">
+    <row r="7" ht="15.75" spans="4:8">
       <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
@@ -3571,17 +3586,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
-      <c r="E8" s="5" t="s">
+    <row r="8" ht="15.75" spans="5:8">
+      <c r="E8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3598,31 +3613,31 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:S10"/>
+  <dimension ref="D7:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="10.162962962963" customWidth="1"/>
     <col min="4" max="4" width="26.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="26.8296296296296" customWidth="1"/>
-    <col min="6" max="6" width="25.8296296296296" customWidth="1"/>
+    <col min="5" max="5" width="29.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="30.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="25.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="25.8296296296296" customWidth="1"/>
     <col min="9" max="9" width="21.6666666666667" customWidth="1"/>
     <col min="10" max="10" width="17.5037037037037" customWidth="1"/>
     <col min="11" max="11" width="22.1703703703704" customWidth="1"/>
     <col min="12" max="12" width="17.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="21.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="24.8888888888889" customWidth="1"/>
     <col min="14" max="14" width="22.8222222222222" customWidth="1"/>
     <col min="15" max="1023" width="10.162962962963" customWidth="1"/>
     <col min="1024" max="1025" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
+    <row r="7" ht="15.75" spans="4:14">
       <c r="D7" s="1" t="s">
         <v>55</v>
       </c>
@@ -3688,8 +3703,8 @@
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="5:19">
       <c r="E9" t="s">
@@ -3722,8 +3737,8 @@
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="Q9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="5:19">
       <c r="E10" t="s">
@@ -3756,8 +3771,40 @@
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="Q10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" ht="18" spans="5:14">
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -1982,6 +1982,30 @@
   </si>
   <si>
     <t>修复角色权限关联为代码关联</t>
+  </si>
+  <si>
+    <t>org-init-data-task-menu-category-refresh</t>
+  </si>
+  <si>
+    <t>刷新组织/项目类别下菜单数据</t>
+  </si>
+  <si>
+    <t>org-init-data-task-category-refresh</t>
+  </si>
+  <si>
+    <t>刷新组织/项目类别数据</t>
+  </si>
+  <si>
+    <t>org-init-data-task-report-refresh</t>
+  </si>
+  <si>
+    <t>刷新报表数据</t>
+  </si>
+  <si>
+    <t>org-init-data-task-lov-refresh</t>
+  </si>
+  <si>
+    <t>刷新 Lov, Lockup, Prompt 数据</t>
   </si>
 </sst>
 </file>
@@ -1990,9 +2014,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="36">
@@ -2055,10 +2079,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2076,9 +2112,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2088,15 +2126,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2104,6 +2144,46 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2124,33 +2204,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2163,42 +2218,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2277,67 +2301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2355,7 +2319,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2367,13 +2373,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,25 +2433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2415,13 +2445,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,31 +2481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,17 +2588,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2603,11 +2623,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2629,175 +2679,149 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3613,17 +3637,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:S11"/>
+  <dimension ref="D7:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="10.162962962963" customWidth="1"/>
     <col min="4" max="4" width="26.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="29.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="52.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="30.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="25.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="25.8296296296296" customWidth="1"/>
@@ -3774,7 +3798,7 @@
       <c r="Q10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" ht="18" spans="5:14">
+    <row r="11" spans="5:14">
       <c r="E11" t="s">
         <v>71</v>
       </c>
@@ -3797,12 +3821,140 @@
         <v>67</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14">
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14">
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14">
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15">
         <v>1</v>
       </c>
     </row>
